--- a/public/excel_symfony4.xlsx
+++ b/public/excel_symfony4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Role</t>
   </si>
@@ -32,6 +32,9 @@
     <t>admin</t>
   </si>
   <si>
+    <t>Asma</t>
+  </si>
+  <si>
     <t>Hejaiej</t>
   </si>
   <si>
@@ -41,10 +44,7 @@
     <t>trainer</t>
   </si>
   <si>
-    <t>Kick-Boxing</t>
-  </si>
-  <si>
-    <t>Trainer</t>
+    <t>trainerrrrr</t>
   </si>
   <si>
     <t>test</t>
@@ -59,73 +59,55 @@
     <t>asmah@gmail.com</t>
   </si>
   <si>
-    <t>Boxing</t>
+    <t>f</t>
   </si>
   <si>
     <t>hejaiej.asma@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Yoga </t>
-  </si>
-  <si>
     <t>e@email.com</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>jhfqd@email.com</t>
-  </si>
-  <si>
-    <t>Asma</t>
-  </si>
-  <si>
-    <t>asma.hejaiej@esprit.tn</t>
-  </si>
-  <si>
-    <t>Gymple</t>
-  </si>
-  <si>
-    <t>jhfssdfsdf@email.com</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>mai@m.cim</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Weight-Lifting</t>
-  </si>
-  <si>
-    <t>dsf@e.Com</t>
-  </si>
-  <si>
-    <t>trainertest</t>
-  </si>
-  <si>
-    <t>h@gmail.com</t>
-  </si>
-  <si>
-    <t>asma.hejaiejjjjjjj@esprit.tn</t>
-  </si>
-  <si>
-    <t>asmaaaaaaaa33333@esprit.tn</t>
-  </si>
-  <si>
-    <t>h111111111111@esprit.tn</t>
-  </si>
-  <si>
-    <t>a6666655555577788886@esprit.tn</t>
-  </si>
-  <si>
-    <t>test@e.com</t>
+    <t>hejer</t>
+  </si>
+  <si>
+    <t>jaouadi</t>
+  </si>
+  <si>
+    <t>hejer@email.com</t>
+  </si>
+  <si>
+    <t>zer</t>
+  </si>
+  <si>
+    <t>zf</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>sqdf</t>
+  </si>
+  <si>
+    <t>qsd</t>
+  </si>
+  <si>
+    <t>defg</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>zerf</t>
+  </si>
+  <si>
+    <t>ezrtf</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>sf</t>
   </si>
 </sst>
 </file>
@@ -461,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,25 +469,25 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>13</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -519,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -527,13 +509,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -544,13 +526,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -558,209 +540,139 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel_symfony4.xlsx
+++ b/public/excel_symfony4.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Role</t>
   </si>
@@ -126,6 +126,60 @@
   </si>
   <si>
     <t>test@e.com</t>
+  </si>
+  <si>
+    <t>okok@e.com</t>
+  </si>
+  <si>
+    <t>okok@e.commmm</t>
+  </si>
+  <si>
+    <t>ll@gmail.com</t>
+  </si>
+  <si>
+    <t>o@o.com</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ok@ok.com</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>k@k.com</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>f@f.com</t>
+  </si>
+  <si>
+    <t>t@t.com</t>
+  </si>
+  <si>
+    <t>tt@t.com</t>
+  </si>
+  <si>
+    <t>test@t.com</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>m@m.com</t>
+  </si>
+  <si>
+    <t>asma.hejaiej@esprit.tnnnnnn</t>
+  </si>
+  <si>
+    <t>email@e.comm</t>
   </si>
 </sst>
 </file>
@@ -461,7 +515,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,6 +815,202 @@
       </c>
       <c r="D21" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
